--- a/hebrewOutputs/hebrew82Comperation_7_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_7_Common_alpha=0.0.xlsx
@@ -34,57 +34,57 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסדר. בסדר. </t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>הורה:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מה הוא הבין כבר מה קורה איתו? </t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>אבא של רונן?</t>
+  </si>
+  <si>
+    <t>כן. של יואב.</t>
+  </si>
+  <si>
+    <t>של יואב סליחה. נעים מאד,</t>
+  </si>
+  <si>
+    <t>היי, היי,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>אני דוקטור דוק.</t>
+  </si>
+  <si>
+    <t>היי, היי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אא  עשינו לו את ה... את ה... </t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
     <t>gives-med</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בסדר. בסדר. </t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>הורה:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה הוא הבין כבר מה קורה איתו? </t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>אבא של רונן?</t>
-  </si>
-  <si>
-    <t>כן. של יואב.</t>
-  </si>
-  <si>
-    <t>של יואב סליחה. נעים מאד,</t>
-  </si>
-  <si>
-    <t>היי, היי,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>אני דוקטור דוק.</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>היי, היי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אא  עשינו לו את ה... את ה... </t>
-  </si>
-  <si>
     <t>אתה יודע קצת אתה מבין את הסיטואציה... את הבדיקות שעשינו</t>
   </si>
   <si>
@@ -220,6 +220,9 @@
     <t>תשמע,</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">אני יודע שזה מפתיע אותך </t>
   </si>
   <si>
@@ -305,9 +308,6 @@
   </si>
   <si>
     <t>... הוא ילד בן חמש.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>(לא נשמע) להגיד לי שעכשיו כל יום הולדת שהוא יילך הוא יצטרך להשגיח לא לאכול מהעוגה לא לאכול מהממתקים בזמן שכל שאר החברים שלו אוכלים כמה שבא להם?</t>
@@ -730,136 +730,136 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -870,10 +870,10 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -884,10 +884,10 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -895,13 +895,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -909,13 +909,13 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -926,10 +926,10 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -937,13 +937,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -951,13 +951,13 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -968,10 +968,10 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -979,13 +979,13 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -999,7 +999,7 @@
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1010,10 +1010,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1021,13 +1021,13 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1035,13 +1035,13 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1049,13 +1049,13 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1063,13 +1063,13 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1077,13 +1077,13 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1119,13 +1119,13 @@
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1133,13 +1133,13 @@
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1147,13 +1147,13 @@
         <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1167,7 +1167,7 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1178,10 +1178,10 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1220,10 +1220,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1248,10 +1248,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1279,7 +1279,7 @@
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1290,10 +1290,10 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1307,7 +1307,7 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1318,10 +1318,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1346,10 +1346,10 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1371,74 +1371,74 @@
         <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -1447,315 +1447,315 @@
         <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
         <v>46</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1811,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1822,10 +1822,10 @@
         <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1839,7 +1839,7 @@
         <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1892,10 +1892,10 @@
         <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1909,7 +1909,7 @@
         <v>46</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1920,10 +1920,10 @@
         <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1934,10 +1934,10 @@
         <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1979,7 +1979,7 @@
         <v>46</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1990,10 +1990,10 @@
         <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2004,10 +2004,10 @@
         <v>46</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
